--- a/QuanLyBaoHiem ngay 11/Data Import Excel/nvdatademo.xlsx
+++ b/QuanLyBaoHiem ngay 11/Data Import Excel/nvdatademo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QuanLyBaoHiem ngay 11\Data Import Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -385,7 +385,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -417,7 +419,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1234567890</v>
+        <v>2315641410</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -426,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>35759</v>
+        <v>321564156</v>
       </c>
     </row>
   </sheetData>

--- a/QuanLyBaoHiem ngay 11/Data Import Excel/nvdatademo.xlsx
+++ b/QuanLyBaoHiem ngay 11/Data Import Excel/nvdatademo.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2">
-        <v>321564156</v>
+        <v>35759</v>
       </c>
     </row>
   </sheetData>
